--- a/CoreRulebook/Data/recuperation.xlsx
+++ b/CoreRulebook/Data/recuperation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="187">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -861,6 +861,15 @@
   </si>
   <si>
     <t xml:space="preserve">Erects a 1m radius shield in front of the caster, which halts any physical object that touches it. Objects in flight drop to the ground, as if the {\it Halt} spell had been cast on them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endure Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omnium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target is protected from the ravages of the environment, and hence can exist in temperatures in the range -40  to 50 celsius, and is unaffected by heavy rain and other weather phenomena. Does not protect against heat damage. </t>
   </si>
 </sst>
 </file>
@@ -977,12 +986,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1013,26 +1022,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K32" activeCellId="0" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="36.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="10.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="72.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,7 +1190,7 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -2392,6 +2401,35 @@
       </c>
       <c r="M37" s="2" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
